--- a/data/pca/factorExposure/factorExposure_2015-04-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02210167760166559</v>
+        <v>-0.01078809606600295</v>
       </c>
       <c r="C2">
-        <v>0.02514063304984081</v>
+        <v>0.05192758659817288</v>
       </c>
       <c r="D2">
-        <v>-0.1162153915173693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1263774947207946</v>
+      </c>
+      <c r="E2">
+        <v>-0.02645410398129064</v>
+      </c>
+      <c r="F2">
+        <v>0.02492010083899779</v>
+      </c>
+      <c r="G2">
+        <v>0.0916181950368531</v>
+      </c>
+      <c r="H2">
+        <v>0.1006895394204091</v>
+      </c>
+      <c r="I2">
+        <v>0.08837070336185995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0424536128810063</v>
+        <v>-0.01473004809409975</v>
       </c>
       <c r="C4">
-        <v>0.07175607414329602</v>
+        <v>0.1067361662034927</v>
       </c>
       <c r="D4">
-        <v>-0.09941314863253502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1274705852444104</v>
+      </c>
+      <c r="E4">
+        <v>-0.01733071289502405</v>
+      </c>
+      <c r="F4">
+        <v>0.09445896377729175</v>
+      </c>
+      <c r="G4">
+        <v>0.006485364668190407</v>
+      </c>
+      <c r="H4">
+        <v>0.05424766398122768</v>
+      </c>
+      <c r="I4">
+        <v>-0.06638770299076963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02493316029145482</v>
+        <v>-0.02795449102594616</v>
       </c>
       <c r="C6">
-        <v>0.01287585727199766</v>
+        <v>0.03712071748590169</v>
       </c>
       <c r="D6">
-        <v>-0.1283555924460439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1204510066862306</v>
+      </c>
+      <c r="E6">
+        <v>-0.06162756965874533</v>
+      </c>
+      <c r="F6">
+        <v>0.04704269206527702</v>
+      </c>
+      <c r="G6">
+        <v>-0.01722237443581323</v>
+      </c>
+      <c r="H6">
+        <v>0.04824412438077529</v>
+      </c>
+      <c r="I6">
+        <v>-0.00298031729822794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001387698010255795</v>
+        <v>-0.006896519624171477</v>
       </c>
       <c r="C7">
-        <v>0.02306956483643116</v>
+        <v>0.03880057337967383</v>
       </c>
       <c r="D7">
-        <v>-0.1087706412514511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09611821948077659</v>
+      </c>
+      <c r="E7">
+        <v>-0.04885743656281086</v>
+      </c>
+      <c r="F7">
+        <v>0.00315003116214981</v>
+      </c>
+      <c r="G7">
+        <v>-0.04160779146186461</v>
+      </c>
+      <c r="H7">
+        <v>0.07898476969754682</v>
+      </c>
+      <c r="I7">
+        <v>-0.04124762089947833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.000391526583136721</v>
+        <v>0.00780928663690268</v>
       </c>
       <c r="C8">
-        <v>0.02485651726477377</v>
+        <v>0.0350523012155434</v>
       </c>
       <c r="D8">
-        <v>-0.07624252351439784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07628336122875294</v>
+      </c>
+      <c r="E8">
+        <v>-0.03649085335140741</v>
+      </c>
+      <c r="F8">
+        <v>0.05341406051428933</v>
+      </c>
+      <c r="G8">
+        <v>0.05843459970229196</v>
+      </c>
+      <c r="H8">
+        <v>0.03722942969597009</v>
+      </c>
+      <c r="I8">
+        <v>-0.01607149986248049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0341914449922855</v>
+        <v>-0.01095576897910132</v>
       </c>
       <c r="C9">
-        <v>0.0613176116985033</v>
+        <v>0.08794713208278901</v>
       </c>
       <c r="D9">
-        <v>-0.1085716448081906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1101428059463857</v>
+      </c>
+      <c r="E9">
+        <v>-0.01608985483041384</v>
+      </c>
+      <c r="F9">
+        <v>0.06185202383460887</v>
+      </c>
+      <c r="G9">
+        <v>-0.02488779463228026</v>
+      </c>
+      <c r="H9">
+        <v>0.06078162696231875</v>
+      </c>
+      <c r="I9">
+        <v>-0.03533738097051836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1746659581893725</v>
+        <v>-0.242838017968252</v>
       </c>
       <c r="C10">
-        <v>-0.1714770894967572</v>
+        <v>-0.08790171093074609</v>
       </c>
       <c r="D10">
-        <v>0.01104790867052791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.003138911493522043</v>
+      </c>
+      <c r="E10">
+        <v>0.01528100572370539</v>
+      </c>
+      <c r="F10">
+        <v>0.047822265120388</v>
+      </c>
+      <c r="G10">
+        <v>0.006191542985244161</v>
+      </c>
+      <c r="H10">
+        <v>-0.01674821908311509</v>
+      </c>
+      <c r="I10">
+        <v>0.01827584751851408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01920282205897517</v>
+        <v>-0.00952482588434587</v>
       </c>
       <c r="C11">
-        <v>0.04176130618824885</v>
+        <v>0.05871059074392093</v>
       </c>
       <c r="D11">
-        <v>-0.0447799232349529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03987963081273542</v>
+      </c>
+      <c r="E11">
+        <v>-0.02164445808594238</v>
+      </c>
+      <c r="F11">
+        <v>-0.01565608687496482</v>
+      </c>
+      <c r="G11">
+        <v>-0.02296876471977866</v>
+      </c>
+      <c r="H11">
+        <v>0.04390948148926146</v>
+      </c>
+      <c r="I11">
+        <v>-0.03419617679252342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01871734611144294</v>
+        <v>-0.009441992528559963</v>
       </c>
       <c r="C12">
-        <v>0.04126255628918953</v>
+        <v>0.05034507884862127</v>
       </c>
       <c r="D12">
-        <v>-0.05665347401934566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04380722646825198</v>
+      </c>
+      <c r="E12">
+        <v>-0.01602844947773763</v>
+      </c>
+      <c r="F12">
+        <v>-0.01942523847697272</v>
+      </c>
+      <c r="G12">
+        <v>-0.04482017903553165</v>
+      </c>
+      <c r="H12">
+        <v>0.05800255417028461</v>
+      </c>
+      <c r="I12">
+        <v>-0.008517275447967119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.004722887305383346</v>
+        <v>0.00525447914255842</v>
       </c>
       <c r="C13">
-        <v>0.02537084393643447</v>
+        <v>0.05026573413015754</v>
       </c>
       <c r="D13">
-        <v>-0.1288246081981793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1433796468031658</v>
+      </c>
+      <c r="E13">
+        <v>-0.03935967003457302</v>
+      </c>
+      <c r="F13">
+        <v>0.03119145337458067</v>
+      </c>
+      <c r="G13">
+        <v>-0.003378716639309067</v>
+      </c>
+      <c r="H13">
+        <v>0.08285964373225159</v>
+      </c>
+      <c r="I13">
+        <v>0.04530064221867514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.00421772619794065</v>
+        <v>-0.001565993944802304</v>
       </c>
       <c r="C14">
-        <v>0.01663565489182435</v>
+        <v>0.03247340468569747</v>
       </c>
       <c r="D14">
-        <v>-0.08714956307378349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0962683975205018</v>
+      </c>
+      <c r="E14">
+        <v>-0.05206112388121174</v>
+      </c>
+      <c r="F14">
+        <v>0.03024268962235927</v>
+      </c>
+      <c r="G14">
+        <v>-0.02560961741239547</v>
+      </c>
+      <c r="H14">
+        <v>0.1376365875294692</v>
+      </c>
+      <c r="I14">
+        <v>0.002525806808419346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.0025093086045829</v>
+        <v>0.003178419297106264</v>
       </c>
       <c r="C15">
-        <v>0.0100304039478113</v>
+        <v>0.0284515496223798</v>
       </c>
       <c r="D15">
-        <v>-0.03630872623409258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.06245634211382329</v>
+      </c>
+      <c r="E15">
+        <v>-0.01565021194178344</v>
+      </c>
+      <c r="F15">
+        <v>0.007798849719457798</v>
+      </c>
+      <c r="G15">
+        <v>0.007932730263045173</v>
+      </c>
+      <c r="H15">
+        <v>0.0471254131544774</v>
+      </c>
+      <c r="I15">
+        <v>-0.01129435042552546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01800867606123429</v>
+        <v>-0.008597513773448596</v>
       </c>
       <c r="C16">
-        <v>0.03748833062387041</v>
+        <v>0.05068700067860716</v>
       </c>
       <c r="D16">
-        <v>-0.04952376057801415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04098874700564104</v>
+      </c>
+      <c r="E16">
+        <v>-0.02326912058341872</v>
+      </c>
+      <c r="F16">
+        <v>-0.01084510095160412</v>
+      </c>
+      <c r="G16">
+        <v>-0.03280763990910988</v>
+      </c>
+      <c r="H16">
+        <v>0.03875554651022606</v>
+      </c>
+      <c r="I16">
+        <v>-0.0209723643162599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0004205090420739714</v>
+        <v>0.002520359916773183</v>
       </c>
       <c r="C19">
-        <v>0.01979864059832784</v>
+        <v>0.01621959023329323</v>
       </c>
       <c r="D19">
-        <v>-0.07687867805203381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.05319989441949628</v>
+      </c>
+      <c r="E19">
+        <v>0.01060573828974355</v>
+      </c>
+      <c r="F19">
+        <v>0.01124154984536587</v>
+      </c>
+      <c r="G19">
+        <v>0.00284224049520999</v>
+      </c>
+      <c r="H19">
+        <v>0.04834573338597144</v>
+      </c>
+      <c r="I19">
+        <v>0.01452575355987613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00274607501022954</v>
+        <v>-0.003599466496639888</v>
       </c>
       <c r="C20">
-        <v>0.02532656924500013</v>
+        <v>0.04233517040948686</v>
       </c>
       <c r="D20">
-        <v>-0.0758575947956039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.08736663354858054</v>
+      </c>
+      <c r="E20">
+        <v>-0.02457612914355278</v>
+      </c>
+      <c r="F20">
+        <v>0.02612994718647814</v>
+      </c>
+      <c r="G20">
+        <v>-0.02458473521583547</v>
+      </c>
+      <c r="H20">
+        <v>0.05881811028569949</v>
+      </c>
+      <c r="I20">
+        <v>-0.04347294895746907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005281915843975951</v>
+        <v>-0.001611768408875629</v>
       </c>
       <c r="C21">
-        <v>0.02932033514093951</v>
+        <v>0.0461541348389095</v>
       </c>
       <c r="D21">
-        <v>-0.1375795557187224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1232655795175894</v>
+      </c>
+      <c r="E21">
+        <v>-0.0350129634952509</v>
+      </c>
+      <c r="F21">
+        <v>0.08685519389515552</v>
+      </c>
+      <c r="G21">
+        <v>-0.02872240082948721</v>
+      </c>
+      <c r="H21">
+        <v>0.1888771391346007</v>
+      </c>
+      <c r="I21">
+        <v>0.07248036029948449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002380076224355314</v>
+        <v>0.01522619093312823</v>
       </c>
       <c r="C22">
-        <v>0.06706575353648223</v>
+        <v>0.08850338305762252</v>
       </c>
       <c r="D22">
-        <v>-0.273231090349952</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2708378903277182</v>
+      </c>
+      <c r="E22">
+        <v>-0.07213621147816536</v>
+      </c>
+      <c r="F22">
+        <v>0.02317448216373462</v>
+      </c>
+      <c r="G22">
+        <v>0.4481101036181879</v>
+      </c>
+      <c r="H22">
+        <v>-0.3146860023220675</v>
+      </c>
+      <c r="I22">
+        <v>0.03601670711674779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002674006386774494</v>
+        <v>0.01205367376374955</v>
       </c>
       <c r="C23">
-        <v>0.06753230996855941</v>
+        <v>0.09029357564956939</v>
       </c>
       <c r="D23">
-        <v>-0.2726611717067023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2734277298222541</v>
+      </c>
+      <c r="E23">
+        <v>-0.06717051003086569</v>
+      </c>
+      <c r="F23">
+        <v>0.02611263591900752</v>
+      </c>
+      <c r="G23">
+        <v>0.433851581793446</v>
+      </c>
+      <c r="H23">
+        <v>-0.3014575512053301</v>
+      </c>
+      <c r="I23">
+        <v>0.03712530178551032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02349385332168506</v>
+        <v>-0.00915075188384881</v>
       </c>
       <c r="C24">
-        <v>0.05736570812543052</v>
+        <v>0.06731128246959692</v>
       </c>
       <c r="D24">
-        <v>-0.05938866078281335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.04502737987161759</v>
+      </c>
+      <c r="E24">
+        <v>-0.02991092033856932</v>
+      </c>
+      <c r="F24">
+        <v>-0.007938331104252889</v>
+      </c>
+      <c r="G24">
+        <v>-0.02634025836818233</v>
+      </c>
+      <c r="H24">
+        <v>0.06757165211163955</v>
+      </c>
+      <c r="I24">
+        <v>-0.02787395117421864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02405573272846432</v>
+        <v>-0.01332011381128749</v>
       </c>
       <c r="C25">
-        <v>0.04865536452818098</v>
+        <v>0.06167574362401117</v>
       </c>
       <c r="D25">
-        <v>-0.05477999581487358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.04809128444987952</v>
+      </c>
+      <c r="E25">
+        <v>-0.01538767975108876</v>
+      </c>
+      <c r="F25">
+        <v>-0.007342513497848416</v>
+      </c>
+      <c r="G25">
+        <v>-0.02361152459860746</v>
+      </c>
+      <c r="H25">
+        <v>0.03153489975410251</v>
+      </c>
+      <c r="I25">
+        <v>-0.01931429606731308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009397345025467308</v>
+        <v>-0.01623893302137754</v>
       </c>
       <c r="C26">
-        <v>0.01501753899902032</v>
+        <v>0.02954090988567661</v>
       </c>
       <c r="D26">
-        <v>-0.07480809207106572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06560736119955442</v>
+      </c>
+      <c r="E26">
+        <v>-0.04170582280513905</v>
+      </c>
+      <c r="F26">
+        <v>0.04236054803421636</v>
+      </c>
+      <c r="G26">
+        <v>-0.02530209331737701</v>
+      </c>
+      <c r="H26">
+        <v>0.102272276743918</v>
+      </c>
+      <c r="I26">
+        <v>-0.001177481184949548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2591221926338145</v>
+        <v>-0.3208702977417855</v>
       </c>
       <c r="C28">
-        <v>-0.1940801253409973</v>
+        <v>-0.08452632278766915</v>
       </c>
       <c r="D28">
-        <v>0.000427580486558933</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02206718008803847</v>
+      </c>
+      <c r="E28">
+        <v>0.04951244772976878</v>
+      </c>
+      <c r="F28">
+        <v>0.04653641393025761</v>
+      </c>
+      <c r="G28">
+        <v>0.060240461344376</v>
+      </c>
+      <c r="H28">
+        <v>0.007366478666170883</v>
+      </c>
+      <c r="I28">
+        <v>-0.002472662567786449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0003036244290974733</v>
+        <v>-0.0004919102137965194</v>
       </c>
       <c r="C29">
-        <v>0.02055499653409434</v>
+        <v>0.03823024094842127</v>
       </c>
       <c r="D29">
-        <v>-0.0853745613198762</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0994068053953746</v>
+      </c>
+      <c r="E29">
+        <v>-0.0573511547453994</v>
+      </c>
+      <c r="F29">
+        <v>0.03560953913313632</v>
+      </c>
+      <c r="G29">
+        <v>-0.03882073399459981</v>
+      </c>
+      <c r="H29">
+        <v>0.1459200966483934</v>
+      </c>
+      <c r="I29">
+        <v>0.002720390767715993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02523931398658167</v>
+        <v>-0.01270954340864713</v>
       </c>
       <c r="C30">
-        <v>0.0633292084772983</v>
+        <v>0.09190106141131522</v>
       </c>
       <c r="D30">
-        <v>-0.1467441535758194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1371232949936083</v>
+      </c>
+      <c r="E30">
+        <v>-0.05495721484165781</v>
+      </c>
+      <c r="F30">
+        <v>0.02188877262686848</v>
+      </c>
+      <c r="G30">
+        <v>0.01095872405605692</v>
+      </c>
+      <c r="H30">
+        <v>0.0528057731123346</v>
+      </c>
+      <c r="I30">
+        <v>-0.0471016195874512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03593642311447192</v>
+        <v>-0.006647864695142651</v>
       </c>
       <c r="C31">
-        <v>0.0845325807513345</v>
+        <v>0.0944172324143881</v>
       </c>
       <c r="D31">
-        <v>-0.0583339482943544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03747682557822828</v>
+      </c>
+      <c r="E31">
+        <v>-0.02172261635637929</v>
+      </c>
+      <c r="F31">
+        <v>0.01297564045095447</v>
+      </c>
+      <c r="G31">
+        <v>-0.01143790091360335</v>
+      </c>
+      <c r="H31">
+        <v>0.0427248544095381</v>
+      </c>
+      <c r="I31">
+        <v>-0.008353546732228838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01555529166112866</v>
+        <v>-0.008891211721225685</v>
       </c>
       <c r="C32">
-        <v>0.03383620499920846</v>
+        <v>0.04858176595444814</v>
       </c>
       <c r="D32">
-        <v>-0.05777988779909398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.08880612851300063</v>
+      </c>
+      <c r="E32">
+        <v>0.001888598915781823</v>
+      </c>
+      <c r="F32">
+        <v>0.04974312697863872</v>
+      </c>
+      <c r="G32">
+        <v>0.006985241779694811</v>
+      </c>
+      <c r="H32">
+        <v>0.05191751132387448</v>
+      </c>
+      <c r="I32">
+        <v>0.03083777046730007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007022079073802957</v>
+        <v>-0.003563831773774065</v>
       </c>
       <c r="C33">
-        <v>0.04164218864205804</v>
+        <v>0.06099623058763836</v>
       </c>
       <c r="D33">
-        <v>-0.1196712396157953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1169612634151209</v>
+      </c>
+      <c r="E33">
+        <v>-0.033042196707429</v>
+      </c>
+      <c r="F33">
+        <v>0.0243112828563253</v>
+      </c>
+      <c r="G33">
+        <v>-0.01573628112295588</v>
+      </c>
+      <c r="H33">
+        <v>0.05880704944956418</v>
+      </c>
+      <c r="I33">
+        <v>-0.0108251533346121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02104123764568892</v>
+        <v>-0.006960154795505464</v>
       </c>
       <c r="C34">
-        <v>0.05901798162986323</v>
+        <v>0.06207610322735154</v>
       </c>
       <c r="D34">
-        <v>-0.05416773859610612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02556318647219985</v>
+      </c>
+      <c r="E34">
+        <v>-0.02908383851391384</v>
+      </c>
+      <c r="F34">
+        <v>-0.04255854664970218</v>
+      </c>
+      <c r="G34">
+        <v>-0.0255254005385336</v>
+      </c>
+      <c r="H34">
+        <v>0.04499215969762987</v>
+      </c>
+      <c r="I34">
+        <v>-0.008625875760319947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.002404229651391436</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01182928778329879</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.03377040354916869</v>
+      </c>
+      <c r="E35">
+        <v>-0.00465603724672548</v>
+      </c>
+      <c r="F35">
+        <v>0.01762642392561094</v>
+      </c>
+      <c r="G35">
+        <v>-0.01668110231777985</v>
+      </c>
+      <c r="H35">
+        <v>0.05690662314566186</v>
+      </c>
+      <c r="I35">
+        <v>-0.009356147464485511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006107226720304443</v>
+        <v>-0.01069952277531799</v>
       </c>
       <c r="C36">
-        <v>0.007291590139366835</v>
+        <v>0.02284008611744206</v>
       </c>
       <c r="D36">
-        <v>-0.0729601532581988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07255012257027334</v>
+      </c>
+      <c r="E36">
+        <v>-0.03052260559011547</v>
+      </c>
+      <c r="F36">
+        <v>0.04785030291624439</v>
+      </c>
+      <c r="G36">
+        <v>-0.01403635820219356</v>
+      </c>
+      <c r="H36">
+        <v>0.06669713064680786</v>
+      </c>
+      <c r="I36">
+        <v>-0.007875238322715163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005336670277952397</v>
+        <v>-0.01129098546315742</v>
       </c>
       <c r="C38">
-        <v>0.007628006217358146</v>
+        <v>0.02653659585359558</v>
       </c>
       <c r="D38">
-        <v>-0.07797603258586745</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08554551670811969</v>
+      </c>
+      <c r="E38">
+        <v>-0.008890694283427409</v>
+      </c>
+      <c r="F38">
+        <v>0.001828780641869899</v>
+      </c>
+      <c r="G38">
+        <v>0.01103652021121238</v>
+      </c>
+      <c r="H38">
+        <v>0.07410117103005524</v>
+      </c>
+      <c r="I38">
+        <v>-0.03778031968602788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01639960530714417</v>
+        <v>-0.002699910183714671</v>
       </c>
       <c r="C39">
-        <v>0.05928840605176208</v>
+        <v>0.07920493694511453</v>
       </c>
       <c r="D39">
-        <v>-0.1049558384240341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.08693497514398682</v>
+      </c>
+      <c r="E39">
+        <v>-0.05269885405138781</v>
+      </c>
+      <c r="F39">
+        <v>-0.01153598873516737</v>
+      </c>
+      <c r="G39">
+        <v>-0.03858331817929967</v>
+      </c>
+      <c r="H39">
+        <v>0.09414435593941815</v>
+      </c>
+      <c r="I39">
+        <v>-0.03149360625231699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01716249197725182</v>
+        <v>-0.01208248630880218</v>
       </c>
       <c r="C40">
-        <v>0.02360897700308878</v>
+        <v>0.03908895861854924</v>
       </c>
       <c r="D40">
-        <v>-0.1076424855713929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09160308704074539</v>
+      </c>
+      <c r="E40">
+        <v>-0.04006418289905111</v>
+      </c>
+      <c r="F40">
+        <v>-0.01552517953827975</v>
+      </c>
+      <c r="G40">
+        <v>0.04404659217943447</v>
+      </c>
+      <c r="H40">
+        <v>0.1122455995788468</v>
+      </c>
+      <c r="I40">
+        <v>0.03562482467035483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01030672689485301</v>
+        <v>-0.01469362943833219</v>
       </c>
       <c r="C41">
-        <v>0.004294965399513491</v>
+        <v>0.01985111943806063</v>
       </c>
       <c r="D41">
-        <v>-0.02992841055259045</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04235722372838865</v>
+      </c>
+      <c r="E41">
+        <v>0.005244145498814795</v>
+      </c>
+      <c r="F41">
+        <v>0.02196556861141663</v>
+      </c>
+      <c r="G41">
+        <v>-0.006525138384651793</v>
+      </c>
+      <c r="H41">
+        <v>0.04580666429429176</v>
+      </c>
+      <c r="I41">
+        <v>-0.009778288478361112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.001106603501480596</v>
+        <v>-0.00792593034308422</v>
       </c>
       <c r="C43">
-        <v>0.004008683542116711</v>
+        <v>0.01596584558857772</v>
       </c>
       <c r="D43">
-        <v>-0.04931445851529578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05159488759030418</v>
+      </c>
+      <c r="E43">
+        <v>-0.01271420171513723</v>
+      </c>
+      <c r="F43">
+        <v>0.01904492250969069</v>
+      </c>
+      <c r="G43">
+        <v>-0.008666254850400292</v>
+      </c>
+      <c r="H43">
+        <v>0.05544103197948864</v>
+      </c>
+      <c r="I43">
+        <v>-0.0263900289707856</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01740154373740327</v>
+        <v>-0.01093465762611157</v>
       </c>
       <c r="C44">
-        <v>0.02419481779685237</v>
+        <v>0.04900647136732559</v>
       </c>
       <c r="D44">
-        <v>-0.0828535016197149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1005870488588189</v>
+      </c>
+      <c r="E44">
+        <v>-0.03625298092637246</v>
+      </c>
+      <c r="F44">
+        <v>0.03599610655406985</v>
+      </c>
+      <c r="G44">
+        <v>0.01954045292098664</v>
+      </c>
+      <c r="H44">
+        <v>0.06568032788507863</v>
+      </c>
+      <c r="I44">
+        <v>-0.01866917632456073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.00742376246743479</v>
+        <v>0.001603604572012182</v>
       </c>
       <c r="C46">
-        <v>0.03015843780691248</v>
+        <v>0.04284080891333199</v>
       </c>
       <c r="D46">
-        <v>-0.07860655115170147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.068902427973506</v>
+      </c>
+      <c r="E46">
+        <v>-0.04370619391660991</v>
+      </c>
+      <c r="F46">
+        <v>0.02704224287483516</v>
+      </c>
+      <c r="G46">
+        <v>-0.01843170295419396</v>
+      </c>
+      <c r="H46">
+        <v>0.1309006224101166</v>
+      </c>
+      <c r="I46">
+        <v>-0.02765299136401826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07829708340340143</v>
+        <v>-0.0290946201153304</v>
       </c>
       <c r="C47">
-        <v>0.1071294874493619</v>
+        <v>0.1291488086454073</v>
       </c>
       <c r="D47">
-        <v>-0.04964678006648675</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02091496955461064</v>
+      </c>
+      <c r="E47">
+        <v>0.008658444352576259</v>
+      </c>
+      <c r="F47">
+        <v>-0.007209290436729775</v>
+      </c>
+      <c r="G47">
+        <v>-0.05193247546528553</v>
+      </c>
+      <c r="H47">
+        <v>0.03899272662419863</v>
+      </c>
+      <c r="I47">
+        <v>-0.02229089467671531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00930368486498178</v>
+        <v>-0.01340354350661043</v>
       </c>
       <c r="C48">
-        <v>0.01700102505339331</v>
+        <v>0.03427642726436479</v>
       </c>
       <c r="D48">
-        <v>-0.06858959638197261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07524900779027933</v>
+      </c>
+      <c r="E48">
+        <v>-0.02170213763733347</v>
+      </c>
+      <c r="F48">
+        <v>0.05458743730654057</v>
+      </c>
+      <c r="G48">
+        <v>-0.01902156455384147</v>
+      </c>
+      <c r="H48">
+        <v>0.1115471471124129</v>
+      </c>
+      <c r="I48">
+        <v>-0.02459444429823483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03235654396622301</v>
+        <v>-0.01036495467090207</v>
       </c>
       <c r="C50">
-        <v>0.05874542711677726</v>
+        <v>0.07601439758656756</v>
       </c>
       <c r="D50">
-        <v>-0.05439964026221499</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04664197569317555</v>
+      </c>
+      <c r="E50">
+        <v>-0.0177389510276856</v>
+      </c>
+      <c r="F50">
+        <v>0.006008751853812272</v>
+      </c>
+      <c r="G50">
+        <v>5.442851566220359e-05</v>
+      </c>
+      <c r="H50">
+        <v>0.02810292727741873</v>
+      </c>
+      <c r="I50">
+        <v>-0.0178091574468398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001422899083316817</v>
+        <v>0.0009580357604943962</v>
       </c>
       <c r="C51">
-        <v>0.005399005713326159</v>
+        <v>0.01710109752809339</v>
       </c>
       <c r="D51">
-        <v>-0.05486360591865354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05543241093060804</v>
+      </c>
+      <c r="E51">
+        <v>-0.03682231333108214</v>
+      </c>
+      <c r="F51">
+        <v>0.03819489991453316</v>
+      </c>
+      <c r="G51">
+        <v>0.009851813206322651</v>
+      </c>
+      <c r="H51">
+        <v>0.06199753684869049</v>
+      </c>
+      <c r="I51">
+        <v>0.01391037292188341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1063860309391232</v>
+        <v>-0.0495210407206596</v>
       </c>
       <c r="C53">
-        <v>0.1256684170635635</v>
+        <v>0.1577948796476804</v>
       </c>
       <c r="D53">
-        <v>0.00288769390820915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02407933533364589</v>
+      </c>
+      <c r="E53">
+        <v>0.02629324623144484</v>
+      </c>
+      <c r="F53">
+        <v>0.04807460044571414</v>
+      </c>
+      <c r="G53">
+        <v>-0.002020493285432229</v>
+      </c>
+      <c r="H53">
+        <v>0.005141076123852584</v>
+      </c>
+      <c r="I53">
+        <v>-0.01517190789131481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01022122715526312</v>
+        <v>-0.009553078225500415</v>
       </c>
       <c r="C54">
-        <v>0.02089763631192964</v>
+        <v>0.03833440848741489</v>
       </c>
       <c r="D54">
-        <v>-0.08587031648942046</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.07640722535648213</v>
+      </c>
+      <c r="E54">
+        <v>-0.02067359147364813</v>
+      </c>
+      <c r="F54">
+        <v>0.00224107771000742</v>
+      </c>
+      <c r="G54">
+        <v>0.001592470965994369</v>
+      </c>
+      <c r="H54">
+        <v>0.08203812579781095</v>
+      </c>
+      <c r="I54">
+        <v>-0.03511468113040496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09379521219821241</v>
+        <v>-0.03876444644353211</v>
       </c>
       <c r="C55">
-        <v>0.1067044371699417</v>
+        <v>0.1317506023539741</v>
       </c>
       <c r="D55">
-        <v>-0.004575218079989081</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03309859964884877</v>
+      </c>
+      <c r="E55">
+        <v>-0.008523691048168393</v>
+      </c>
+      <c r="F55">
+        <v>0.009726063232576953</v>
+      </c>
+      <c r="G55">
+        <v>-0.001384995387867627</v>
+      </c>
+      <c r="H55">
+        <v>0.009067311144367613</v>
+      </c>
+      <c r="I55">
+        <v>0.01018053143671327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1340931772830918</v>
+        <v>-0.05375373666757471</v>
       </c>
       <c r="C56">
-        <v>0.146162452040428</v>
+        <v>0.1923241618209879</v>
       </c>
       <c r="D56">
-        <v>-0.005515074360453721</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03175856078843774</v>
+      </c>
+      <c r="E56">
+        <v>0.02788206264819177</v>
+      </c>
+      <c r="F56">
+        <v>0.01426413809664696</v>
+      </c>
+      <c r="G56">
+        <v>0.04484592076042886</v>
+      </c>
+      <c r="H56">
+        <v>0.02035835580307303</v>
+      </c>
+      <c r="I56">
+        <v>0.01447925881578986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.009237534987162498</v>
+        <v>-0.001851936111903189</v>
       </c>
       <c r="C58">
-        <v>0.009993712037452366</v>
+        <v>0.05616858887158922</v>
       </c>
       <c r="D58">
-        <v>-0.2083627428576093</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2913497631821595</v>
+      </c>
+      <c r="E58">
+        <v>-0.02569939639064594</v>
+      </c>
+      <c r="F58">
+        <v>0.1242264671432273</v>
+      </c>
+      <c r="G58">
+        <v>0.1679510289939387</v>
+      </c>
+      <c r="H58">
+        <v>-0.03466948517700887</v>
+      </c>
+      <c r="I58">
+        <v>-0.03480459147648836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1824210432367147</v>
+        <v>-0.2553826480899992</v>
       </c>
       <c r="C59">
-        <v>-0.1454084330454591</v>
+        <v>-0.05622927185268373</v>
       </c>
       <c r="D59">
-        <v>-0.03665169900628294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05459725931556705</v>
+      </c>
+      <c r="E59">
+        <v>0.02064946343782666</v>
+      </c>
+      <c r="F59">
+        <v>0.0236672318716141</v>
+      </c>
+      <c r="G59">
+        <v>0.005628400394302466</v>
+      </c>
+      <c r="H59">
+        <v>0.004805134722556026</v>
+      </c>
+      <c r="I59">
+        <v>0.03915094992420726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1844121273155797</v>
+        <v>-0.1464290139276937</v>
       </c>
       <c r="C60">
-        <v>0.1016353323308801</v>
+        <v>0.1755185192797994</v>
       </c>
       <c r="D60">
-        <v>-0.23979896115516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.09597888913453559</v>
+      </c>
+      <c r="E60">
+        <v>-0.152094085603644</v>
+      </c>
+      <c r="F60">
+        <v>-0.2154309841733515</v>
+      </c>
+      <c r="G60">
+        <v>-0.1966027943181081</v>
+      </c>
+      <c r="H60">
+        <v>-0.2804419922612505</v>
+      </c>
+      <c r="I60">
+        <v>0.1070698096033761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02510673045149477</v>
+        <v>-0.01020596082733204</v>
       </c>
       <c r="C61">
-        <v>0.05333121879434796</v>
+        <v>0.0749798925746538</v>
       </c>
       <c r="D61">
-        <v>-0.08665490934045041</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.07089297000426073</v>
+      </c>
+      <c r="E61">
+        <v>-0.03874668243151227</v>
+      </c>
+      <c r="F61">
+        <v>-0.01798331067191368</v>
+      </c>
+      <c r="G61">
+        <v>-0.05009098982141399</v>
+      </c>
+      <c r="H61">
+        <v>0.07629912953960492</v>
+      </c>
+      <c r="I61">
+        <v>-0.02018874008973305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.00684803617728419</v>
+        <v>-0.008305217123173479</v>
       </c>
       <c r="C63">
-        <v>0.02353380680463843</v>
+        <v>0.03731518958801578</v>
       </c>
       <c r="D63">
-        <v>-0.09217710338742592</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06708389861651518</v>
+      </c>
+      <c r="E63">
+        <v>-0.05901391970006636</v>
+      </c>
+      <c r="F63">
+        <v>0.02315440434712389</v>
+      </c>
+      <c r="G63">
+        <v>-0.0204815595906707</v>
+      </c>
+      <c r="H63">
+        <v>0.07218350213254114</v>
+      </c>
+      <c r="I63">
+        <v>-0.02055355705264066</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05566296253285352</v>
+        <v>-0.01439697663474128</v>
       </c>
       <c r="C64">
-        <v>0.08742757348363417</v>
+        <v>0.1058577543089003</v>
       </c>
       <c r="D64">
-        <v>-0.009266946690312538</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.00332256912127014</v>
+      </c>
+      <c r="E64">
+        <v>-0.02412662861654154</v>
+      </c>
+      <c r="F64">
+        <v>0.008277100430702218</v>
+      </c>
+      <c r="G64">
+        <v>-0.05327555895499326</v>
+      </c>
+      <c r="H64">
+        <v>0.05460794491007531</v>
+      </c>
+      <c r="I64">
+        <v>-0.04950971545371115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02570518042103885</v>
+        <v>-0.01977639415191176</v>
       </c>
       <c r="C65">
-        <v>0.01617339343736005</v>
+        <v>0.04480646778134779</v>
       </c>
       <c r="D65">
-        <v>-0.1077250708080457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1135758443460977</v>
+      </c>
+      <c r="E65">
+        <v>-0.0460680069680749</v>
+      </c>
+      <c r="F65">
+        <v>-0.00696812469087095</v>
+      </c>
+      <c r="G65">
+        <v>-0.03090873794002869</v>
+      </c>
+      <c r="H65">
+        <v>0.007257581044753804</v>
+      </c>
+      <c r="I65">
+        <v>-0.04324078434021184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02150409779024511</v>
+        <v>-0.0001442508676421296</v>
       </c>
       <c r="C66">
-        <v>0.06900225092635634</v>
+        <v>0.09781554612005991</v>
       </c>
       <c r="D66">
-        <v>-0.1217760780556913</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1176287947438724</v>
+      </c>
+      <c r="E66">
+        <v>-0.04461714226608823</v>
+      </c>
+      <c r="F66">
+        <v>-0.0118723949882286</v>
+      </c>
+      <c r="G66">
+        <v>-0.005329643955581516</v>
+      </c>
+      <c r="H66">
+        <v>0.06808967604868636</v>
+      </c>
+      <c r="I66">
+        <v>-0.02489842080298258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02344710962545922</v>
+        <v>-0.02121047235045316</v>
       </c>
       <c r="C67">
-        <v>0.02062612736778483</v>
+        <v>0.0376201201484314</v>
       </c>
       <c r="D67">
-        <v>-0.04054586240478516</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.04098702754951195</v>
+      </c>
+      <c r="E67">
+        <v>-0.01397619440611014</v>
+      </c>
+      <c r="F67">
+        <v>-0.02956345424837516</v>
+      </c>
+      <c r="G67">
+        <v>-0.005293229133660948</v>
+      </c>
+      <c r="H67">
+        <v>0.06465369950836977</v>
+      </c>
+      <c r="I67">
+        <v>-0.03125655170897425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2042792500399229</v>
+        <v>-0.276066951260713</v>
       </c>
       <c r="C68">
-        <v>-0.1548289282633135</v>
+        <v>-0.06253928805361607</v>
       </c>
       <c r="D68">
-        <v>-0.03167543424212081</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03059266857180771</v>
+      </c>
+      <c r="E68">
+        <v>0.000607377309756068</v>
+      </c>
+      <c r="F68">
+        <v>0.02921348717559056</v>
+      </c>
+      <c r="G68">
+        <v>0.0772960576286537</v>
+      </c>
+      <c r="H68">
+        <v>-0.04067807570526905</v>
+      </c>
+      <c r="I68">
+        <v>0.01371288676577975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05337534663099643</v>
+        <v>-0.0144877457119026</v>
       </c>
       <c r="C69">
-        <v>0.11597086154228</v>
+        <v>0.1180590507143926</v>
       </c>
       <c r="D69">
-        <v>-0.07466891105900457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02889784571338726</v>
+      </c>
+      <c r="E69">
+        <v>-0.01014752312649111</v>
+      </c>
+      <c r="F69">
+        <v>-0.009909867986645985</v>
+      </c>
+      <c r="G69">
+        <v>-0.03307384478123641</v>
+      </c>
+      <c r="H69">
+        <v>0.03542372221697283</v>
+      </c>
+      <c r="I69">
+        <v>-0.005867898549510776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2141857810941146</v>
+        <v>-0.276931005638124</v>
       </c>
       <c r="C71">
-        <v>-0.1782194266598183</v>
+        <v>-0.07526877999655991</v>
       </c>
       <c r="D71">
-        <v>-0.01327396665092538</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01653587867818368</v>
+      </c>
+      <c r="E71">
+        <v>-0.0001213379709193742</v>
+      </c>
+      <c r="F71">
+        <v>0.01597677512394656</v>
+      </c>
+      <c r="G71">
+        <v>0.03292958402139672</v>
+      </c>
+      <c r="H71">
+        <v>0.0117630796296622</v>
+      </c>
+      <c r="I71">
+        <v>-0.005284076496098485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1031376075106958</v>
+        <v>-0.05327780040408559</v>
       </c>
       <c r="C72">
-        <v>0.07697183613537287</v>
+        <v>0.1287247582675097</v>
       </c>
       <c r="D72">
-        <v>-0.1244717640374054</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06033686828550987</v>
+      </c>
+      <c r="E72">
+        <v>-0.06953585870810138</v>
+      </c>
+      <c r="F72">
+        <v>-0.02845842893266153</v>
+      </c>
+      <c r="G72">
+        <v>-0.05036747843938731</v>
+      </c>
+      <c r="H72">
+        <v>0.03806143270758344</v>
+      </c>
+      <c r="I72">
+        <v>-0.02944461898522928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.172605852112508</v>
+        <v>-0.1356890448230816</v>
       </c>
       <c r="C73">
-        <v>0.06892098494652302</v>
+        <v>0.1519451834735862</v>
       </c>
       <c r="D73">
-        <v>-0.3105290141575212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09834184239001757</v>
+      </c>
+      <c r="E73">
+        <v>-0.2734622831779743</v>
+      </c>
+      <c r="F73">
+        <v>-0.3067163203639183</v>
+      </c>
+      <c r="G73">
+        <v>-0.3674065345324117</v>
+      </c>
+      <c r="H73">
+        <v>-0.256133834437536</v>
+      </c>
+      <c r="I73">
+        <v>0.02712775875615305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1059738012873978</v>
+        <v>-0.04736399799363041</v>
       </c>
       <c r="C74">
-        <v>0.1153513027320298</v>
+        <v>0.1445014066601834</v>
       </c>
       <c r="D74">
-        <v>0.02564353351518476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04344020126443217</v>
+      </c>
+      <c r="E74">
+        <v>0.009414658558724365</v>
+      </c>
+      <c r="F74">
+        <v>0.03547436212253434</v>
+      </c>
+      <c r="G74">
+        <v>-0.003147072987062569</v>
+      </c>
+      <c r="H74">
+        <v>-0.02083487934778602</v>
+      </c>
+      <c r="I74">
+        <v>0.00762517443787654</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2308650668611177</v>
+        <v>-0.09958301005702773</v>
       </c>
       <c r="C75">
-        <v>0.2001753546710545</v>
+        <v>0.271019975155694</v>
       </c>
       <c r="D75">
-        <v>0.09825783586501159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1287749078646128</v>
+      </c>
+      <c r="E75">
+        <v>0.09332251599641013</v>
+      </c>
+      <c r="F75">
+        <v>-0.03019057943843425</v>
+      </c>
+      <c r="G75">
+        <v>0.09735699268782423</v>
+      </c>
+      <c r="H75">
+        <v>0.04206136906571389</v>
+      </c>
+      <c r="I75">
+        <v>-0.04696419665696086</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.136576821000915</v>
+        <v>-0.05607491628101743</v>
       </c>
       <c r="C76">
-        <v>0.1389662979732893</v>
+        <v>0.1812236936782281</v>
       </c>
       <c r="D76">
-        <v>-0.002771190899835854</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0465094841247408</v>
+      </c>
+      <c r="E76">
+        <v>0.02040588080518117</v>
+      </c>
+      <c r="F76">
+        <v>0.001679657039804787</v>
+      </c>
+      <c r="G76">
+        <v>0.03289152654165507</v>
+      </c>
+      <c r="H76">
+        <v>0.04037869464920825</v>
+      </c>
+      <c r="I76">
+        <v>-0.00318361717558792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.0204619187054375</v>
+        <v>0.002556755005413649</v>
       </c>
       <c r="C77">
-        <v>0.06785040778327334</v>
+        <v>0.106697014409304</v>
       </c>
       <c r="D77">
-        <v>0.04521739990144839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.3269138273251802</v>
+      </c>
+      <c r="E77">
+        <v>0.8487262393404013</v>
+      </c>
+      <c r="F77">
+        <v>-0.1925311312174123</v>
+      </c>
+      <c r="G77">
+        <v>-0.1558085468483172</v>
+      </c>
+      <c r="H77">
+        <v>-0.1842208424199057</v>
+      </c>
+      <c r="I77">
+        <v>-0.02023527094540725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02923717243186887</v>
+        <v>-0.01397634423241669</v>
       </c>
       <c r="C78">
-        <v>0.07091964367537219</v>
+        <v>0.09225706770928271</v>
       </c>
       <c r="D78">
-        <v>-0.1411783784726859</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1105680374745769</v>
+      </c>
+      <c r="E78">
+        <v>-0.06455904553673035</v>
+      </c>
+      <c r="F78">
+        <v>0.04437917692805422</v>
+      </c>
+      <c r="G78">
+        <v>0.02927225312296361</v>
+      </c>
+      <c r="H78">
+        <v>0.05463690712368178</v>
+      </c>
+      <c r="I78">
+        <v>0.04354740258412303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.0986328709995803</v>
+        <v>-0.03424605794032307</v>
       </c>
       <c r="C79">
-        <v>0.18514879920372</v>
+        <v>0.1968922992070824</v>
       </c>
       <c r="D79">
-        <v>0.2475376208427365</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08781891171793342</v>
+      </c>
+      <c r="E79">
+        <v>0.05153254799156313</v>
+      </c>
+      <c r="F79">
+        <v>0.793782407670616</v>
+      </c>
+      <c r="G79">
+        <v>-0.3189111024527387</v>
+      </c>
+      <c r="H79">
+        <v>-0.3423769865317344</v>
+      </c>
+      <c r="I79">
+        <v>-0.03233420776717355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.004060354802896968</v>
+        <v>-0.004306747002047101</v>
       </c>
       <c r="C80">
-        <v>0.04368578113070313</v>
+        <v>0.04397133377842204</v>
       </c>
       <c r="D80">
-        <v>-0.05007709846622792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0396159516639847</v>
+      </c>
+      <c r="E80">
+        <v>-0.04329745514320941</v>
+      </c>
+      <c r="F80">
+        <v>0.00085142973108429</v>
+      </c>
+      <c r="G80">
+        <v>-0.009561848578686642</v>
+      </c>
+      <c r="H80">
+        <v>0.03005721278067933</v>
+      </c>
+      <c r="I80">
+        <v>0.08427046985718738</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1170413427179068</v>
+        <v>-0.03879921613209967</v>
       </c>
       <c r="C81">
-        <v>0.1363834152737045</v>
+        <v>0.1665768337423644</v>
       </c>
       <c r="D81">
-        <v>0.08209825676744628</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0850508144554918</v>
+      </c>
+      <c r="E81">
+        <v>0.04511528984023535</v>
+      </c>
+      <c r="F81">
+        <v>0.05828311771276563</v>
+      </c>
+      <c r="G81">
+        <v>0.03800910853283448</v>
+      </c>
+      <c r="H81">
+        <v>0.07784133270650719</v>
+      </c>
+      <c r="I81">
+        <v>0.01125765676636592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2476818678157548</v>
+        <v>-0.08354751066146843</v>
       </c>
       <c r="C82">
-        <v>0.2954286964221233</v>
+        <v>0.3188922527558901</v>
       </c>
       <c r="D82">
-        <v>0.1785477300354938</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2417719708395833</v>
+      </c>
+      <c r="E82">
+        <v>0.06702137956590716</v>
+      </c>
+      <c r="F82">
+        <v>-0.1142359945904185</v>
+      </c>
+      <c r="G82">
+        <v>0.0852416481297418</v>
+      </c>
+      <c r="H82">
+        <v>0.126362975012151</v>
+      </c>
+      <c r="I82">
+        <v>0.01580410494840788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.009899248841677786</v>
+        <v>0.01642561750811488</v>
       </c>
       <c r="C83">
-        <v>0.05192312411729691</v>
+        <v>0.01776199823887257</v>
       </c>
       <c r="D83">
-        <v>0.009303811761140549</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01368971364046829</v>
+      </c>
+      <c r="E83">
+        <v>0.08121601281363491</v>
+      </c>
+      <c r="F83">
+        <v>0.06522247299436019</v>
+      </c>
+      <c r="G83">
+        <v>-0.03358680476578429</v>
+      </c>
+      <c r="H83">
+        <v>0.1230966116713633</v>
+      </c>
+      <c r="I83">
+        <v>0.9272821472263441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0004321683602832863</v>
+        <v>0.003107172672459815</v>
       </c>
       <c r="C84">
-        <v>-0.001178508944100221</v>
+        <v>0.01764837183710386</v>
       </c>
       <c r="D84">
-        <v>-0.001945249785987006</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0439591676968639</v>
+      </c>
+      <c r="E84">
+        <v>0.001111055452631054</v>
+      </c>
+      <c r="F84">
+        <v>0.03165653735385437</v>
+      </c>
+      <c r="G84">
+        <v>0.04173734061390692</v>
+      </c>
+      <c r="H84">
+        <v>0.04854913443432752</v>
+      </c>
+      <c r="I84">
+        <v>-0.052301623744825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1393091399417315</v>
+        <v>-0.05351577086717769</v>
       </c>
       <c r="C85">
-        <v>0.1416440230014392</v>
+        <v>0.1839225907128775</v>
       </c>
       <c r="D85">
-        <v>0.05378604496107512</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09912296166140587</v>
+      </c>
+      <c r="E85">
+        <v>-0.0001788268668319798</v>
+      </c>
+      <c r="F85">
+        <v>0.06900766286893147</v>
+      </c>
+      <c r="G85">
+        <v>0.01991609307477698</v>
+      </c>
+      <c r="H85">
+        <v>-0.006900758862280546</v>
+      </c>
+      <c r="I85">
+        <v>-0.003002626303605687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01611451086770211</v>
+        <v>-0.01143330466450068</v>
       </c>
       <c r="C86">
-        <v>0.01027818048045326</v>
+        <v>0.03618404633572481</v>
       </c>
       <c r="D86">
-        <v>-0.09317218786984771</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1103582907027765</v>
+      </c>
+      <c r="E86">
+        <v>0.011989113902076</v>
+      </c>
+      <c r="F86">
+        <v>0.005709292858968493</v>
+      </c>
+      <c r="G86">
+        <v>-0.01940792993640897</v>
+      </c>
+      <c r="H86">
+        <v>0.03510673561385373</v>
+      </c>
+      <c r="I86">
+        <v>-0.01808000722661458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02028281007550133</v>
+        <v>-0.01031948785605522</v>
       </c>
       <c r="C87">
-        <v>0.02691500152816765</v>
+        <v>0.06073936526141475</v>
       </c>
       <c r="D87">
-        <v>-0.1207457635418718</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1388381855187988</v>
+      </c>
+      <c r="E87">
+        <v>-0.0149430314585277</v>
+      </c>
+      <c r="F87">
+        <v>0.04067890343973744</v>
+      </c>
+      <c r="G87">
+        <v>0.03593747791152236</v>
+      </c>
+      <c r="H87">
+        <v>0.07663245840755475</v>
+      </c>
+      <c r="I87">
+        <v>0.02476500546370384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05031856169740927</v>
+        <v>-0.03041247281997543</v>
       </c>
       <c r="C88">
-        <v>0.04433001119351631</v>
+        <v>0.06807480969423786</v>
       </c>
       <c r="D88">
-        <v>-0.01723300794914209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01459096015300704</v>
+      </c>
+      <c r="E88">
+        <v>-0.03061901903299825</v>
+      </c>
+      <c r="F88">
+        <v>0.01840889462698788</v>
+      </c>
+      <c r="G88">
+        <v>-0.01641882019368803</v>
+      </c>
+      <c r="H88">
+        <v>0.003578403216520608</v>
+      </c>
+      <c r="I88">
+        <v>-0.0274530905977955</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3218243711540292</v>
+        <v>-0.4090709006957038</v>
       </c>
       <c r="C89">
-        <v>-0.3234725201160064</v>
+        <v>-0.1457951347809301</v>
       </c>
       <c r="D89">
-        <v>-0.00432535872324036</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03727565172473894</v>
+      </c>
+      <c r="E89">
+        <v>0.05201486126823932</v>
+      </c>
+      <c r="F89">
+        <v>0.06267384451291888</v>
+      </c>
+      <c r="G89">
+        <v>-0.01771565284403335</v>
+      </c>
+      <c r="H89">
+        <v>0.1272614477482038</v>
+      </c>
+      <c r="I89">
+        <v>0.08108773557581421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.256775582814276</v>
+        <v>-0.3221880069732495</v>
       </c>
       <c r="C90">
-        <v>-0.2374546213294665</v>
+        <v>-0.09823366954415273</v>
       </c>
       <c r="D90">
-        <v>-0.0464331357726174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03776606858832424</v>
+      </c>
+      <c r="E90">
+        <v>0.008815771732229621</v>
+      </c>
+      <c r="F90">
+        <v>-0.004058118150076183</v>
+      </c>
+      <c r="G90">
+        <v>0.06535806624920712</v>
+      </c>
+      <c r="H90">
+        <v>0.01446010738764176</v>
+      </c>
+      <c r="I90">
+        <v>0.03442326677439959</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1534548629694968</v>
+        <v>-0.06290406743960841</v>
       </c>
       <c r="C91">
-        <v>0.1859282227720852</v>
+        <v>0.2071696387486286</v>
       </c>
       <c r="D91">
-        <v>0.1070377979329926</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1099838738157586</v>
+      </c>
+      <c r="E91">
+        <v>0.05814001784015354</v>
+      </c>
+      <c r="F91">
+        <v>0.06478170034181253</v>
+      </c>
+      <c r="G91">
+        <v>0.005293323099796233</v>
+      </c>
+      <c r="H91">
+        <v>-0.01085295160738085</v>
+      </c>
+      <c r="I91">
+        <v>0.02643621186125063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2424815424399254</v>
+        <v>-0.341473962428591</v>
       </c>
       <c r="C92">
-        <v>-0.261385432349637</v>
+        <v>-0.1339120903754984</v>
       </c>
       <c r="D92">
-        <v>0.06974441832905168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005024873001348349</v>
+      </c>
+      <c r="E92">
+        <v>0.06298477870177495</v>
+      </c>
+      <c r="F92">
+        <v>0.0322539016867568</v>
+      </c>
+      <c r="G92">
+        <v>0.03721218687553263</v>
+      </c>
+      <c r="H92">
+        <v>0.02884956139686815</v>
+      </c>
+      <c r="I92">
+        <v>-0.1357337495314223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2850127834272784</v>
+        <v>-0.3372451562727575</v>
       </c>
       <c r="C93">
-        <v>-0.2476808912246507</v>
+        <v>-0.1062034634617314</v>
       </c>
       <c r="D93">
-        <v>-0.007498536627453587</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01849792364995668</v>
+      </c>
+      <c r="E93">
+        <v>-0.02694458388815761</v>
+      </c>
+      <c r="F93">
+        <v>0.004576182372086575</v>
+      </c>
+      <c r="G93">
+        <v>-0.006019677148330128</v>
+      </c>
+      <c r="H93">
+        <v>-0.02044298572850538</v>
+      </c>
+      <c r="I93">
+        <v>-0.03185476355786564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2903269557821119</v>
+        <v>-0.1205879359818944</v>
       </c>
       <c r="C94">
-        <v>0.2718826455695144</v>
+        <v>0.3488915645235688</v>
       </c>
       <c r="D94">
-        <v>0.2950828166431146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3549180878537312</v>
+      </c>
+      <c r="E94">
+        <v>0.05766202727828231</v>
+      </c>
+      <c r="F94">
+        <v>-0.1098360668842407</v>
+      </c>
+      <c r="G94">
+        <v>0.335308653269857</v>
+      </c>
+      <c r="H94">
+        <v>0.0178098746425067</v>
+      </c>
+      <c r="I94">
+        <v>-0.006685647109034108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01320008412928322</v>
+        <v>-0.01415906355092899</v>
       </c>
       <c r="C95">
-        <v>0.0425503781484573</v>
+        <v>0.06632492481376431</v>
       </c>
       <c r="D95">
-        <v>0.01938151694292615</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09432442201003684</v>
+      </c>
+      <c r="E95">
+        <v>0.1656278791074833</v>
+      </c>
+      <c r="F95">
+        <v>-0.03361260956748413</v>
+      </c>
+      <c r="G95">
+        <v>-0.1354872660210805</v>
+      </c>
+      <c r="H95">
+        <v>0.3223780034436089</v>
+      </c>
+      <c r="I95">
+        <v>-0.1568845464050018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.001411044928245268</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.000946126003920577</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0007490398177412157</v>
+      </c>
+      <c r="E97">
+        <v>-0.003995911693518615</v>
+      </c>
+      <c r="F97">
+        <v>0.0005537552678914457</v>
+      </c>
+      <c r="G97">
+        <v>0.0006423086288286103</v>
+      </c>
+      <c r="H97">
+        <v>0.004207992562249997</v>
+      </c>
+      <c r="I97">
+        <v>-0.006219448455117127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1495833663301987</v>
+        <v>-0.1168524302464272</v>
       </c>
       <c r="C98">
-        <v>0.0864567865634565</v>
+        <v>0.155583684520123</v>
       </c>
       <c r="D98">
-        <v>-0.1984285381173156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06858182455218155</v>
+      </c>
+      <c r="E98">
+        <v>-0.1833124659908601</v>
+      </c>
+      <c r="F98">
+        <v>-0.2335760528386939</v>
+      </c>
+      <c r="G98">
+        <v>-0.2515972714444405</v>
+      </c>
+      <c r="H98">
+        <v>-0.2147643356960292</v>
+      </c>
+      <c r="I98">
+        <v>0.05840079102893106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.000424821680857754</v>
+        <v>-0.000978694658529271</v>
       </c>
       <c r="C101">
-        <v>0.01981601049559219</v>
+        <v>0.03749075342226445</v>
       </c>
       <c r="D101">
-        <v>-0.08489124599135955</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09862620104442335</v>
+      </c>
+      <c r="E101">
+        <v>-0.05666294986271585</v>
+      </c>
+      <c r="F101">
+        <v>0.03581405570869079</v>
+      </c>
+      <c r="G101">
+        <v>-0.03801504805609949</v>
+      </c>
+      <c r="H101">
+        <v>0.1464575668021082</v>
+      </c>
+      <c r="I101">
+        <v>0.002765121535381014</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1053698897847223</v>
+        <v>-0.02672336810818501</v>
       </c>
       <c r="C102">
-        <v>0.1573689928724341</v>
+        <v>0.1478007213987788</v>
       </c>
       <c r="D102">
-        <v>0.05469104390326355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09902525209760357</v>
+      </c>
+      <c r="E102">
+        <v>0.03958917185479363</v>
+      </c>
+      <c r="F102">
+        <v>-0.06805532467071476</v>
+      </c>
+      <c r="G102">
+        <v>-0.007375322432291058</v>
+      </c>
+      <c r="H102">
+        <v>0.0383757592835605</v>
+      </c>
+      <c r="I102">
+        <v>0.0197857462027706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
